--- a/ToeicWeb/wwwroot/adminn/upload/Book1 - Copy.xlsx
+++ b/ToeicWeb/wwwroot/adminn/upload/Book1 - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DO AN CNNT 1\WEBTOEIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6295AB-706F-4217-85F5-590716FD87E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686CF6BE-8EDE-4D40-84E1-2EFDCAAAFA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DE8BA6B-961E-4448-91FA-1A5D71FEB673}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>Thu_tu_cau</t>
   </si>
@@ -81,9 +81,6 @@
     <t>himself</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>B ĐÚNG</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>connecting</t>
   </si>
   <si>
-    <t xml:space="preserve">D </t>
-  </si>
-  <si>
     <t>D ĐÚNG</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
   </si>
   <si>
     <t>free</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>C ĐÚNG</t>
@@ -507,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D5C6B3-AA94-4318-BF3F-CD79BBFFFC4F}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -576,13 +567,13 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,25 +584,25 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -622,25 +613,25 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -651,25 +642,25 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -680,25 +671,170 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>111</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>112</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>113</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>114</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>115</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
